--- a/data/notes.xlsx
+++ b/data/notes.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3471" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3471" uniqueCount="522">
   <si>
     <t>source</t>
   </si>
@@ -1285,6 +1285,9 @@
       </rPr>
       <t>(PDF) Cultivar influences rootstock and scion survival of grafted black walnut</t>
     </r>
+  </si>
+  <si>
+    <t>Age</t>
   </si>
   <si>
     <t xml:space="preserve">Uduwatta </t>
@@ -2966,11 +2969,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1639908306"/>
-        <c:axId val="122347143"/>
+        <c:axId val="1368502425"/>
+        <c:axId val="1753068039"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1639908306"/>
+        <c:axId val="1368502425"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3022,10 +3025,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122347143"/>
+        <c:crossAx val="1753068039"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122347143"/>
+        <c:axId val="1753068039"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3100,7 +3103,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1639908306"/>
+        <c:crossAx val="1368502425"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -40603,7 +40606,7 @@
         <v>352</v>
       </c>
       <c r="D1" s="110" t="s">
-        <v>353</v>
+        <v>396</v>
       </c>
       <c r="E1" s="110" t="s">
         <v>354</v>
@@ -41356,7 +41359,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="204" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AB1" s="204"/>
       <c r="AC1" s="204"/>
@@ -41368,64 +41371,64 @@
         <v>333</v>
       </c>
       <c r="B2" s="148" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C2" s="148" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D2" s="148" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E2" s="148" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F2" s="148" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G2" s="148" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H2" s="148" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I2" s="148" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="J2" s="148" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="K2" s="148" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L2" s="148" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M2" s="148" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N2" s="148" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="O2" s="148" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="P2" s="148" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q2" s="148" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="R2" s="148" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="S2" s="148" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="T2" s="148" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="U2" s="148" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="V2" s="148"/>
       <c r="W2" s="148"/>
@@ -41597,7 +41600,7 @@
       <c r="K5" s="208"/>
       <c r="L5" s="208"/>
       <c r="M5" s="209" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N5" s="208"/>
       <c r="O5" s="208"/>
@@ -42103,7 +42106,7 @@
     </row>
     <row r="15">
       <c r="A15" s="204" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AB15" s="204"/>
       <c r="AC15" s="204"/>
@@ -42121,13 +42124,13 @@
         <v>39</v>
       </c>
       <c r="D16" s="148" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E16" s="148" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F16" s="148" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G16" s="148" t="s">
         <v>38</v>
@@ -42206,7 +42209,7 @@
     </row>
     <row r="19">
       <c r="A19" s="204" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="20">
@@ -42220,13 +42223,13 @@
         <v>39</v>
       </c>
       <c r="D20" s="148" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E20" s="148" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F20" s="148" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G20" s="148" t="s">
         <v>38</v>
@@ -42298,94 +42301,94 @@
         <v>333</v>
       </c>
       <c r="B23" s="148" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C23" s="148" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D23" s="148" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E23" s="148" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F23" s="148" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G23" s="148" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H23" s="148" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="I23" s="148" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="J23" s="148" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="K23" s="148" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L23" s="148" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M23" s="148" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N23" s="148" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O23" s="148" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="P23" s="148" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q23" s="148" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="R23" s="148" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="S23" s="148" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="T23" s="148" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="U23" s="148" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="V23" s="148" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="W23" s="148" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="X23" s="148" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Y23" s="148" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Z23" s="148" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AA23" s="148" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AB23" s="148" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AC23" s="148" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AD23" s="148" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AE23" s="148" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="24">
@@ -42473,7 +42476,7 @@
         <v>39</v>
       </c>
       <c r="D26" s="83" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E26" s="83" t="s">
         <v>38</v>
@@ -42481,7 +42484,7 @@
     </row>
     <row r="27">
       <c r="A27" s="83" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B27" s="210">
         <v>2.8566254381004117</v>
@@ -42501,7 +42504,7 @@
     </row>
     <row r="28">
       <c r="A28" s="83" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B28" s="210">
         <v>2.8566254381004117</v>
@@ -42521,7 +42524,7 @@
     </row>
     <row r="29">
       <c r="A29" s="83" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B29" s="210">
         <v>2.8566254381004117</v>
@@ -42541,7 +42544,7 @@
     </row>
     <row r="30">
       <c r="A30" s="83" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B30" s="210">
         <v>2.4890850951091488</v>
@@ -42561,7 +42564,7 @@
     </row>
     <row r="31">
       <c r="A31" s="83" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B31" s="210">
         <v>4.499639941670267</v>
@@ -43045,16 +43048,16 @@
         <v>36</v>
       </c>
       <c r="C41" s="148" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D41" s="148" t="s">
         <v>39</v>
       </c>
       <c r="E41" s="148" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F41" s="148" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G41" s="148" t="s">
         <v>38</v>
@@ -43123,7 +43126,7 @@
     </row>
     <row r="44">
       <c r="A44" s="204" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="45">
@@ -43131,70 +43134,70 @@
         <v>333</v>
       </c>
       <c r="B45" s="148" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C45" s="148" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D45" s="148" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E45" s="148" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F45" s="148" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="G45" s="148" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H45" s="148" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="I45" s="148" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="J45" s="148" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="K45" s="148" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L45" s="148" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M45" s="148" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="N45" s="148" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="O45" s="148" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="P45" s="148" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q45" s="148" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="R45" s="148" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="S45" s="148" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="T45" s="148" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="U45" s="148" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="V45" s="148" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="W45" s="148" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="X45" s="148"/>
       <c r="Y45" s="148"/>
@@ -43282,7 +43285,7 @@
         <v>39</v>
       </c>
       <c r="E47" s="83" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F47" s="83" t="s">
         <v>38</v>
@@ -43290,7 +43293,7 @@
     </row>
     <row r="48">
       <c r="B48" s="83" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C48" s="211">
         <f>C46</f>
@@ -43311,7 +43314,7 @@
     </row>
     <row r="49">
       <c r="B49" s="83" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C49" s="211">
         <f>D46</f>
@@ -43332,7 +43335,7 @@
     </row>
     <row r="50">
       <c r="B50" s="83" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C50" s="211">
         <f>E46</f>
@@ -43353,7 +43356,7 @@
     </row>
     <row r="51">
       <c r="B51" s="83" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C51" s="211">
         <v>35.48279459950183</v>
@@ -43371,7 +43374,7 @@
     </row>
     <row r="52">
       <c r="B52" s="83" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C52" s="211">
         <v>65.43580302765271</v>
@@ -43389,7 +43392,7 @@
     </row>
     <row r="53">
       <c r="B53" s="83" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C53" s="211">
         <v>107.37001482706398</v>
@@ -43421,10 +43424,10 @@
         <v>36</v>
       </c>
       <c r="C56" s="148" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D56" s="148" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E56" s="148" t="s">
         <v>378</v>
@@ -43506,13 +43509,13 @@
         <v>36</v>
       </c>
       <c r="C60" s="148" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D60" s="148" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E60" s="148" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F60" s="148" t="s">
         <v>39</v>
@@ -43588,34 +43591,34 @@
         <v>333</v>
       </c>
       <c r="B64" s="148" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C64" s="148" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D64" s="148" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E64" s="148" t="s">
+        <v>497</v>
+      </c>
+      <c r="F64" s="148" t="s">
         <v>496</v>
       </c>
-      <c r="F64" s="148" t="s">
-        <v>495</v>
-      </c>
       <c r="G64" s="148" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H64" s="148" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="I64" s="148" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="J64" s="148" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K64" s="148" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="L64" s="148"/>
       <c r="M64" s="148"/>
@@ -43685,7 +43688,7 @@
     </row>
     <row r="66">
       <c r="A66" s="83" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D66" s="74">
         <f>AVERAGE(C65,D65)</f>
@@ -43709,10 +43712,10 @@
         <v>36</v>
       </c>
       <c r="C68" s="148" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D68" s="148" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E68" s="148" t="s">
         <v>38</v>
@@ -43797,10 +43800,10 @@
         <v>39</v>
       </c>
       <c r="D72" s="148" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E72" s="148" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F72" s="148" t="s">
         <v>38</v>
@@ -43868,7 +43871,7 @@
     </row>
     <row r="75">
       <c r="A75" s="204" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="76">
@@ -43876,52 +43879,52 @@
         <v>333</v>
       </c>
       <c r="B76" s="148" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C76" s="148" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D76" s="148" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E76" s="148" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F76" s="148" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G76" s="148" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H76" s="148" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="I76" s="148" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="J76" s="148" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="K76" s="148" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="L76" s="148" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M76" s="148" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="N76" s="148" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="O76" s="148" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="P76" s="148" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="Q76" s="148" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="R76" s="148"/>
       <c r="S76" s="148"/>
@@ -43997,7 +44000,7 @@
     </row>
     <row r="78">
       <c r="A78" s="83" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D78" s="74">
         <f>SUM(B77:D77)</f>

--- a/data/notes.xlsx
+++ b/data/notes.xlsx
@@ -1669,11 +1669,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="m-d"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1779,7 +1778,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1844,6 +1843,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFC9DAF8"/>
         <bgColor rgb="FFC9DAF8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF00FF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -2117,7 +2122,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="212">
+  <cellXfs count="216">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2624,15 +2629,24 @@
     <xf borderId="0" fillId="11" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="12" fontId="2" numFmtId="2" xfId="0" applyFill="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="12" fontId="2" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="12" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="16" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="167" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="12" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="8" fontId="2" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="8" fontId="16" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="8" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -2644,6 +2658,9 @@
     </xf>
     <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -2657,7 +2674,7 @@
     <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="17" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2666,7 +2683,7 @@
     <xf borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="13" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="16" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -2684,10 +2701,10 @@
     <xf borderId="0" fillId="5" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="14" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="14" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -2969,11 +2986,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1368502425"/>
-        <c:axId val="1753068039"/>
+        <c:axId val="588039338"/>
+        <c:axId val="1066026196"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1368502425"/>
+        <c:axId val="588039338"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3025,10 +3042,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1753068039"/>
+        <c:crossAx val="1066026196"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1753068039"/>
+        <c:axId val="1066026196"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3103,7 +3120,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1368502425"/>
+        <c:crossAx val="588039338"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3654,8 +3671,8 @@
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="AK1:BC14" displayName="Table_24" name="Table_24" id="28">
-  <tableColumns count="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="AK1:BB14" displayName="Table_24" name="Table_24" id="28">
+  <tableColumns count="18">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
     <tableColumn name="Column3" id="3"/>
@@ -3674,7 +3691,6 @@
     <tableColumn name="Column16" id="16"/>
     <tableColumn name="Column17" id="17"/>
     <tableColumn name="Column18" id="18"/>
-    <tableColumn name="Column19" id="19"/>
   </tableColumns>
   <tableStyleInfo name="Nates Empirical-style 2" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
@@ -3725,7 +3741,7 @@
 </file>
 
 <file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="BC17" displayName="Table_28" name="Table_28" id="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="BB17" displayName="Table_28" name="Table_28" id="32">
   <tableColumns count="1">
     <tableColumn name="Column1" id="1"/>
   </tableColumns>
@@ -30112,15 +30128,15 @@
     <col customWidth="1" hidden="1" min="36" max="36" width="69.13"/>
     <col customWidth="1" hidden="1" min="41" max="41" width="25.5"/>
     <col customWidth="1" min="42" max="42" width="8.63"/>
-    <col customWidth="1" min="44" max="45" width="9.38"/>
-    <col customWidth="1" min="46" max="46" width="10.63"/>
-    <col customWidth="1" min="47" max="47" width="15.13"/>
-    <col customWidth="1" min="48" max="49" width="9.38"/>
-    <col customWidth="1" hidden="1" min="50" max="50" width="6.25"/>
-    <col customWidth="1" hidden="1" min="51" max="51" width="9.38"/>
-    <col customWidth="1" hidden="1" min="52" max="52" width="6.25"/>
-    <col customWidth="1" hidden="1" min="53" max="53" width="9.38"/>
-    <col hidden="1" min="54" max="55" width="12.63"/>
+    <col customWidth="1" min="44" max="44" width="9.38"/>
+    <col customWidth="1" min="45" max="45" width="10.63"/>
+    <col customWidth="1" min="46" max="46" width="15.13"/>
+    <col customWidth="1" min="47" max="48" width="9.38"/>
+    <col customWidth="1" hidden="1" min="49" max="49" width="6.25"/>
+    <col customWidth="1" hidden="1" min="50" max="50" width="9.38"/>
+    <col customWidth="1" hidden="1" min="51" max="51" width="6.25"/>
+    <col customWidth="1" hidden="1" min="52" max="52" width="9.38"/>
+    <col hidden="1" min="53" max="54" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -30253,38 +30269,37 @@
       <c r="AQ1" s="110" t="s">
         <v>354</v>
       </c>
-      <c r="AR1" s="110" t="s">
+      <c r="AR1" s="187" t="s">
+        <v>376</v>
+      </c>
+      <c r="AS1" s="187" t="s">
+        <v>39</v>
+      </c>
+      <c r="AT1" s="187" t="s">
+        <v>391</v>
+      </c>
+      <c r="AU1" s="187" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV1" s="110" t="s">
         <v>355</v>
       </c>
-      <c r="AS1" s="187" t="s">
-        <v>376</v>
-      </c>
-      <c r="AT1" s="187" t="s">
-        <v>39</v>
-      </c>
-      <c r="AU1" s="187" t="s">
-        <v>391</v>
-      </c>
-      <c r="AV1" s="187" t="s">
-        <v>38</v>
-      </c>
-      <c r="AW1" s="187"/>
+      <c r="AW1" s="110" t="s">
+        <v>356</v>
+      </c>
       <c r="AX1" s="110" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="AY1" s="110" t="s">
+        <v>357</v>
+      </c>
+      <c r="AZ1" s="110" t="s">
         <v>354</v>
       </c>
-      <c r="AZ1" s="110" t="s">
-        <v>357</v>
-      </c>
       <c r="BA1" s="110" t="s">
-        <v>354</v>
-      </c>
-      <c r="BB1" s="110" t="s">
         <v>358</v>
       </c>
-      <c r="BC1" s="110"/>
+      <c r="BB1" s="110"/>
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
@@ -30408,20 +30423,19 @@
       <c r="AT2" s="39"/>
       <c r="AU2" s="39"/>
       <c r="AV2" s="39"/>
-      <c r="AW2" s="39"/>
-      <c r="AX2" s="39">
+      <c r="AW2" s="39">
         <v>5.0</v>
       </c>
-      <c r="AY2" s="114">
+      <c r="AX2" s="114">
         <f> ((1.938*25)/1000)*0.5</f>
         <v>0.024225</v>
       </c>
-      <c r="AZ2" s="39"/>
-      <c r="BA2" s="114"/>
-      <c r="BB2" s="112" t="s">
+      <c r="AY2" s="39"/>
+      <c r="AZ2" s="114"/>
+      <c r="BA2" s="112" t="s">
         <v>360</v>
       </c>
-      <c r="BC2" s="112"/>
+      <c r="BB2" s="112"/>
     </row>
     <row r="3">
       <c r="A3" s="23" t="s">
@@ -30542,18 +30556,17 @@
       <c r="AT3" s="39"/>
       <c r="AU3" s="39"/>
       <c r="AV3" s="39"/>
-      <c r="AW3" s="39"/>
-      <c r="AX3" s="39">
+      <c r="AW3" s="39">
         <v>5.0</v>
       </c>
-      <c r="AY3" s="114">
+      <c r="AX3" s="114">
         <f> ((1.179*25)/1000)*0.5</f>
         <v>0.0147375</v>
       </c>
-      <c r="AZ3" s="39"/>
-      <c r="BA3" s="114"/>
+      <c r="AY3" s="39"/>
+      <c r="AZ3" s="114"/>
+      <c r="BA3" s="116"/>
       <c r="BB3" s="116"/>
-      <c r="BC3" s="116"/>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
@@ -30674,18 +30687,17 @@
       <c r="AT4" s="39"/>
       <c r="AU4" s="39"/>
       <c r="AV4" s="39"/>
-      <c r="AW4" s="39"/>
-      <c r="AX4" s="39">
+      <c r="AW4" s="39">
         <v>5.0</v>
       </c>
-      <c r="AY4" s="114">
+      <c r="AX4" s="114">
         <f> ((0.884*25)/1000)*0.5</f>
         <v>0.01105</v>
       </c>
-      <c r="AZ4" s="39"/>
-      <c r="BA4" s="114"/>
+      <c r="AY4" s="39"/>
+      <c r="AZ4" s="114"/>
+      <c r="BA4" s="116"/>
       <c r="BB4" s="116"/>
-      <c r="BC4" s="116"/>
     </row>
     <row r="5">
       <c r="A5" s="23"/>
@@ -30752,31 +30764,30 @@
         <v>16.34</v>
       </c>
       <c r="AR5" s="120">
-        <f t="shared" ref="AR5:AR19" si="7">AQ5/AP5</f>
+        <v>9.829024179360166</v>
+      </c>
+      <c r="AS5" s="188">
+        <v>0.20484217747202538</v>
+      </c>
+      <c r="AT5" s="120">
+        <v>4.905409638770266</v>
+      </c>
+      <c r="AU5" s="120">
+        <v>0.2673937159488225</v>
+      </c>
+      <c r="AV5" s="120">
+        <f>AQ5/AP5</f>
         <v>0.7427272727</v>
       </c>
-      <c r="AS5" s="120">
-        <v>9.829024179360166</v>
-      </c>
-      <c r="AT5" s="120">
-        <v>0.2696872232538582</v>
-      </c>
-      <c r="AU5" s="120">
-        <v>4.905409638770266</v>
-      </c>
-      <c r="AV5" s="120">
-        <v>0.2673937159488225</v>
-      </c>
-      <c r="AW5" s="120"/>
-      <c r="AX5" s="22"/>
-      <c r="AY5" s="121">
-        <f>SUM(AY2:AY4)</f>
+      <c r="AW5" s="22"/>
+      <c r="AX5" s="121">
+        <f>SUM(AX2:AX4)</f>
         <v>0.0500125</v>
       </c>
-      <c r="AZ5" s="22"/>
-      <c r="BA5" s="119"/>
+      <c r="AY5" s="22"/>
+      <c r="AZ5" s="119"/>
+      <c r="BA5" s="116"/>
       <c r="BB5" s="116"/>
-      <c r="BC5" s="116"/>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
@@ -30888,36 +30899,35 @@
       <c r="AP6" s="39">
         <v>17.0</v>
       </c>
-      <c r="AQ6" s="122">
-        <f>3.4+(3.4*0.25)</f>
-        <v>4.25</v>
+      <c r="AQ6" s="189">
+        <f>12.7+(12.7*0.25)</f>
+        <v>15.875</v>
       </c>
       <c r="AR6" s="120">
-        <f t="shared" si="7"/>
-        <v>0.25</v>
+        <v>15.449558599498799</v>
       </c>
       <c r="AS6" s="120">
-        <v>15.449558599498799</v>
+        <v>3.0877907556508797</v>
       </c>
       <c r="AT6" s="120">
-        <v>3.0877907556508797</v>
-      </c>
-      <c r="AU6" s="120">
         <v>12.901794797141074</v>
       </c>
-      <c r="AV6" s="120">
-        <v>0.41669945118522</v>
-      </c>
-      <c r="AW6" s="120"/>
-      <c r="AX6" s="116"/>
-      <c r="AY6" s="116">
-        <f>AX6/AQ6</f>
-        <v>0</v>
-      </c>
+      <c r="AU6" s="188">
+        <v>10.625491747154003</v>
+      </c>
+      <c r="AV6" s="120" t="str">
+        <f>#REF!/AP6</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AW6" s="116"/>
+      <c r="AX6" s="116" t="str">
+        <f>AW6/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AY6" s="116"/>
       <c r="AZ6" s="116"/>
       <c r="BA6" s="116"/>
       <c r="BB6" s="116"/>
-      <c r="BC6" s="116"/>
     </row>
     <row r="7">
       <c r="A7" s="23" t="s">
@@ -31027,33 +31037,32 @@
       <c r="AP7" s="39">
         <v>17.0</v>
       </c>
-      <c r="AQ7" s="122">
-        <f>12.7+(12.7*0.25)</f>
-        <v>15.875</v>
+      <c r="AQ7" s="190">
+        <f>3.4+(3.4*0.25)</f>
+        <v>4.25</v>
       </c>
       <c r="AR7" s="120">
-        <f t="shared" si="7"/>
+        <v>5.13219580430068</v>
+      </c>
+      <c r="AS7" s="120">
+        <v>0.2597672055211105</v>
+      </c>
+      <c r="AT7" s="120">
+        <v>3.0163071710871443</v>
+      </c>
+      <c r="AU7" s="120">
+        <v>0.46391543416513714</v>
+      </c>
+      <c r="AV7" s="120">
+        <f>AQ6/AP7</f>
         <v>0.9338235294</v>
       </c>
-      <c r="AS7" s="120">
-        <v>5.13219580430068</v>
-      </c>
-      <c r="AT7" s="120">
-        <v>0.2597672055211105</v>
-      </c>
-      <c r="AU7" s="120">
-        <v>3.0163071710871443</v>
-      </c>
-      <c r="AV7" s="120">
-        <v>0.46391543416513714</v>
-      </c>
-      <c r="AW7" s="120"/>
+      <c r="AW7" s="116"/>
       <c r="AX7" s="116"/>
       <c r="AY7" s="116"/>
       <c r="AZ7" s="116"/>
       <c r="BA7" s="116"/>
       <c r="BB7" s="116"/>
-      <c r="BC7" s="116"/>
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
@@ -31100,7 +31109,7 @@
         <v>111.0</v>
       </c>
       <c r="Q8" s="15" t="str">
-        <f t="shared" ref="Q8:Q12" si="8">TEXT(10000/(6*15),"0")&amp;" to "&amp;TEXT(10000/(6*6),"0")</f>
+        <f t="shared" ref="Q8:Q12" si="7">TEXT(10000/(6*15),"0")&amp;" to "&amp;TEXT(10000/(6*6),"0")</f>
         <v>111 to 278</v>
       </c>
       <c r="S8" s="16">
@@ -31141,7 +31150,7 @@
       </c>
       <c r="AE8" s="20"/>
       <c r="AF8" s="46" t="str">
-        <f t="shared" ref="AF8:AF12" si="9">TEXT(111/2.47105,"0")&amp;" total, "&amp;TEXT(111/(2.47105*5),"0")&amp;" each sp"</f>
+        <f t="shared" ref="AF8:AF12" si="8">TEXT(111/2.47105,"0")&amp;" total, "&amp;TEXT(111/(2.47105*5),"0")&amp;" each sp"</f>
         <v>45 total, 9 each sp</v>
       </c>
       <c r="AG8" s="20"/>
@@ -31171,26 +31180,25 @@
         <v>15.375</v>
       </c>
       <c r="AR8" s="120">
-        <f t="shared" si="7"/>
+        <v>2.8566254381004117</v>
+      </c>
+      <c r="AS8" s="120">
+        <v>0.7700723757999016</v>
+      </c>
+      <c r="AT8" s="120">
+        <v>2.6679891780241083</v>
+      </c>
+      <c r="AU8" s="120">
+        <v>0.6255463857445361</v>
+      </c>
+      <c r="AV8" s="120">
+        <f t="shared" ref="AV8:AV19" si="9">AQ8/AP8</f>
         <v>0.4659090909</v>
       </c>
-      <c r="AS8" s="120">
-        <v>2.8566254381004117</v>
-      </c>
-      <c r="AT8" s="120">
-        <v>0.7700723757999016</v>
-      </c>
-      <c r="AU8" s="120">
-        <v>2.6679891780241083</v>
-      </c>
-      <c r="AV8" s="120">
-        <v>0.6255463857445361</v>
-      </c>
-      <c r="AW8" s="120"/>
+      <c r="AW8" s="112"/>
       <c r="AX8" s="112"/>
-      <c r="AY8" s="112"/>
+      <c r="BA8" s="116"/>
       <c r="BB8" s="116"/>
-      <c r="BC8" s="116"/>
     </row>
     <row r="9">
       <c r="A9" s="23" t="s">
@@ -31237,7 +31245,7 @@
         <v>111.0</v>
       </c>
       <c r="Q9" s="29" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>111 to 278</v>
       </c>
       <c r="S9" s="30">
@@ -31280,7 +31288,7 @@
       </c>
       <c r="AE9" s="34"/>
       <c r="AF9" s="44" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>45 total, 9 each sp</v>
       </c>
       <c r="AG9" s="34"/>
@@ -31308,24 +31316,23 @@
         <v>9.875</v>
       </c>
       <c r="AR9" s="120">
-        <f t="shared" si="7"/>
+        <v>2.8566254381004117</v>
+      </c>
+      <c r="AS9" s="120">
+        <v>1.5368784313067287</v>
+      </c>
+      <c r="AT9" s="120">
+        <v>2.8371596281724036</v>
+      </c>
+      <c r="AU9" s="120">
+        <v>0.6763106212368937</v>
+      </c>
+      <c r="AV9" s="120">
+        <f t="shared" si="9"/>
         <v>0.2992424242</v>
       </c>
-      <c r="AS9" s="120">
-        <v>2.8566254381004117</v>
-      </c>
-      <c r="AT9" s="120">
-        <v>1.5368784313067287</v>
-      </c>
-      <c r="AU9" s="120">
-        <v>2.8371596281724036</v>
-      </c>
-      <c r="AV9" s="120">
-        <v>0.6763106212368937</v>
-      </c>
-      <c r="AW9" s="120"/>
+      <c r="BA9" s="116"/>
       <c r="BB9" s="116"/>
-      <c r="BC9" s="116"/>
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
@@ -31372,7 +31379,7 @@
         <v>111.0</v>
       </c>
       <c r="Q10" s="15" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>111 to 278</v>
       </c>
       <c r="S10" s="16">
@@ -31415,7 +31422,7 @@
       </c>
       <c r="AE10" s="20"/>
       <c r="AF10" s="46" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>45 total, 9 each sp</v>
       </c>
       <c r="AG10" s="20"/>
@@ -31443,24 +31450,23 @@
         <v>20.25</v>
       </c>
       <c r="AR10" s="120">
-        <f t="shared" si="7"/>
+        <v>2.8566254381004117</v>
+      </c>
+      <c r="AS10" s="120">
+        <v>1.4433116428854766</v>
+      </c>
+      <c r="AT10" s="120">
+        <v>1.5384219833891133</v>
+      </c>
+      <c r="AU10" s="120">
+        <v>0.3981990300180097</v>
+      </c>
+      <c r="AV10" s="120">
+        <f t="shared" si="9"/>
         <v>0.6136363636</v>
       </c>
-      <c r="AS10" s="120">
-        <v>2.8566254381004117</v>
-      </c>
-      <c r="AT10" s="120">
-        <v>1.4433116428854766</v>
-      </c>
-      <c r="AU10" s="120">
-        <v>1.5384219833891133</v>
-      </c>
-      <c r="AV10" s="120">
-        <v>0.3981990300180097</v>
-      </c>
-      <c r="AW10" s="120"/>
+      <c r="BA10" s="116"/>
       <c r="BB10" s="116"/>
-      <c r="BC10" s="116"/>
     </row>
     <row r="11">
       <c r="A11" s="23" t="s">
@@ -31507,7 +31513,7 @@
         <v>111.0</v>
       </c>
       <c r="Q11" s="29" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>111 to 278</v>
       </c>
       <c r="S11" s="30">
@@ -31550,7 +31556,7 @@
       </c>
       <c r="AE11" s="34"/>
       <c r="AF11" s="44" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>45 total, 9 each sp</v>
       </c>
       <c r="AG11" s="34"/>
@@ -31578,22 +31584,21 @@
         <v>12.375</v>
       </c>
       <c r="AR11" s="120">
-        <f t="shared" si="7"/>
+        <v>2.4890850951091488</v>
+      </c>
+      <c r="AS11" s="120">
+        <v>0.3518885370482132</v>
+      </c>
+      <c r="AT11" s="120">
+        <v>1.6025108299695583</v>
+      </c>
+      <c r="AU11" s="120">
+        <v>0.20951619057150475</v>
+      </c>
+      <c r="AV11" s="120">
+        <f t="shared" si="9"/>
         <v>0.375</v>
       </c>
-      <c r="AS11" s="120">
-        <v>2.4890850951091488</v>
-      </c>
-      <c r="AT11" s="120">
-        <v>0.3518885370482132</v>
-      </c>
-      <c r="AU11" s="120">
-        <v>1.6025108299695583</v>
-      </c>
-      <c r="AV11" s="120">
-        <v>0.20951619057150475</v>
-      </c>
-      <c r="AW11" s="120"/>
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
@@ -31640,7 +31645,7 @@
         <v>111.0</v>
       </c>
       <c r="Q12" s="15" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>111 to 278</v>
       </c>
       <c r="S12" s="16">
@@ -31683,7 +31688,7 @@
       </c>
       <c r="AE12" s="20"/>
       <c r="AF12" s="46" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>45 total, 9 each sp</v>
       </c>
       <c r="AG12" s="20"/>
@@ -31711,22 +31716,21 @@
         <v>24.5</v>
       </c>
       <c r="AR12" s="120">
-        <f t="shared" si="7"/>
+        <v>4.499639941670267</v>
+      </c>
+      <c r="AS12" s="120">
+        <v>0.6735213437456824</v>
+      </c>
+      <c r="AT12" s="120">
+        <v>0.7159074527235921</v>
+      </c>
+      <c r="AU12" s="120">
+        <v>0.36954180030458195</v>
+      </c>
+      <c r="AV12" s="120">
+        <f t="shared" si="9"/>
         <v>0.7424242424</v>
       </c>
-      <c r="AS12" s="120">
-        <v>4.499639941670267</v>
-      </c>
-      <c r="AT12" s="120">
-        <v>0.6735213437456824</v>
-      </c>
-      <c r="AU12" s="120">
-        <v>0.7159074527235921</v>
-      </c>
-      <c r="AV12" s="120">
-        <v>0.36954180030458195</v>
-      </c>
-      <c r="AW12" s="120"/>
     </row>
     <row r="13">
       <c r="A13" s="23" t="s">
@@ -31830,24 +31834,23 @@
         <v>22.25</v>
       </c>
       <c r="AR13" s="120">
-        <f t="shared" si="7"/>
+        <v>119.0230286</v>
+      </c>
+      <c r="AS13" s="120">
+        <v>33.4053166047834</v>
+      </c>
+      <c r="AT13" s="120">
+        <v>18.7000161568</v>
+      </c>
+      <c r="AU13" s="120">
+        <v>8.68098731477704</v>
+      </c>
+      <c r="AV13" s="120">
+        <f t="shared" si="9"/>
         <v>3.178571429</v>
       </c>
-      <c r="AS13" s="120">
-        <v>119.0230286</v>
-      </c>
-      <c r="AT13" s="120">
-        <v>33.4053166047834</v>
-      </c>
-      <c r="AU13" s="120">
-        <v>18.7000161568</v>
-      </c>
-      <c r="AV13" s="120">
-        <v>8.68098731477704</v>
-      </c>
-      <c r="AW13" s="120"/>
+      <c r="AY13" s="116"/>
       <c r="AZ13" s="116"/>
-      <c r="BA13" s="116"/>
     </row>
     <row r="14">
       <c r="A14" s="54" t="s">
@@ -31961,36 +31964,35 @@
         <v>18.0</v>
       </c>
       <c r="AQ14" s="128">
-        <f t="shared" ref="AQ14:AQ19" si="15">BC14*0.465*0.5</f>
+        <f t="shared" ref="AQ14:AQ19" si="15">BB14*0.465*0.5</f>
         <v>23.20164</v>
       </c>
       <c r="AR14" s="120">
-        <f t="shared" si="7"/>
+        <v>35.48279459950183</v>
+      </c>
+      <c r="AS14" s="120">
+        <v>7.34282624721527</v>
+      </c>
+      <c r="AT14" s="120">
+        <v>24.793999999999997</v>
+      </c>
+      <c r="AU14" s="120">
+        <v>4.719192139737991</v>
+      </c>
+      <c r="AV14" s="120">
+        <f t="shared" si="9"/>
         <v>1.28898</v>
       </c>
-      <c r="AS14" s="120">
-        <v>35.48279459950183</v>
-      </c>
-      <c r="AT14" s="120">
-        <v>7.34282624721527</v>
-      </c>
-      <c r="AU14" s="120">
-        <v>24.793999999999997</v>
-      </c>
-      <c r="AV14" s="120">
-        <v>4.719192139737991</v>
-      </c>
-      <c r="AW14" s="120"/>
-      <c r="AX14" s="129"/>
+      <c r="AW14" s="129"/>
+      <c r="AX14" s="116"/>
       <c r="AY14" s="116"/>
       <c r="AZ14" s="116"/>
-      <c r="BA14" s="116"/>
-      <c r="BB14" s="126">
+      <c r="BA14" s="126">
         <f>373-49</f>
         <v>324</v>
       </c>
-      <c r="BC14" s="127">
-        <f>(BB14*308)/1000</f>
+      <c r="BB14" s="127">
+        <f>(BA14*308)/1000</f>
         <v>99.792</v>
       </c>
     </row>
@@ -32110,28 +32112,27 @@
         <v>38.16534</v>
       </c>
       <c r="AR15" s="120">
-        <f t="shared" si="7"/>
+        <v>65.43580302765271</v>
+      </c>
+      <c r="AS15" s="120">
+        <v>13.11770176887507</v>
+      </c>
+      <c r="AT15" s="120">
+        <v>45.72399999999999</v>
+      </c>
+      <c r="AU15" s="120">
+        <v>8.70292576419214</v>
+      </c>
+      <c r="AV15" s="120">
+        <f t="shared" si="9"/>
         <v>2.120296667</v>
       </c>
-      <c r="AS15" s="120">
-        <v>65.43580302765271</v>
-      </c>
-      <c r="AT15" s="120">
-        <v>13.11770176887507</v>
-      </c>
-      <c r="AU15" s="120">
-        <v>45.72399999999999</v>
-      </c>
-      <c r="AV15" s="120">
-        <v>8.70292576419214</v>
-      </c>
-      <c r="AW15" s="120"/>
-      <c r="BB15" s="126">
+      <c r="BA15" s="126">
         <f>((343-37)+(310-38))/2</f>
         <v>289</v>
       </c>
-      <c r="BC15" s="127">
-        <f>(BB15*568)/1000</f>
+      <c r="BB15" s="127">
+        <f>(BA15*568)/1000</f>
         <v>164.152</v>
       </c>
     </row>
@@ -32251,28 +32252,27 @@
         <v>52.764015</v>
       </c>
       <c r="AR16" s="120">
-        <f t="shared" si="7"/>
+        <v>107.37001482706398</v>
+      </c>
+      <c r="AS16" s="120">
+        <v>20.64381313323974</v>
+      </c>
+      <c r="AT16" s="120">
+        <v>75.026</v>
+      </c>
+      <c r="AU16" s="120">
+        <v>14.280152838427949</v>
+      </c>
+      <c r="AV16" s="120">
+        <f t="shared" si="9"/>
         <v>2.931334167</v>
       </c>
-      <c r="AS16" s="120">
-        <v>107.37001482706398</v>
-      </c>
-      <c r="AT16" s="120">
-        <v>20.64381313323974</v>
-      </c>
-      <c r="AU16" s="120">
-        <v>75.026</v>
-      </c>
-      <c r="AV16" s="120">
-        <v>14.280152838427949</v>
-      </c>
-      <c r="AW16" s="120"/>
-      <c r="BB16" s="126">
+      <c r="BA16" s="126">
         <f>((292-28)+(243-20))/2</f>
         <v>243.5</v>
       </c>
-      <c r="BC16" s="127">
-        <f>(BB16*932)/1000</f>
+      <c r="BB16" s="127">
+        <f>(BA16*932)/1000</f>
         <v>226.942</v>
       </c>
     </row>
@@ -32395,21 +32395,20 @@
         <f t="shared" si="15"/>
         <v>22.84359</v>
       </c>
-      <c r="AR17" s="120">
-        <f t="shared" si="7"/>
-        <v>1.269088333</v>
-      </c>
+      <c r="AR17" s="120"/>
       <c r="AS17" s="120"/>
       <c r="AT17" s="120"/>
       <c r="AU17" s="120"/>
-      <c r="AV17" s="120"/>
-      <c r="AW17" s="120"/>
-      <c r="BB17" s="126">
+      <c r="AV17" s="120">
+        <f t="shared" si="9"/>
+        <v>1.269088333</v>
+      </c>
+      <c r="BA17" s="126">
         <f>359-40</f>
         <v>319</v>
       </c>
-      <c r="BC17" s="127">
-        <f>(BB17*308)/1000</f>
+      <c r="BB17" s="127">
+        <f>(BA17*308)/1000</f>
         <v>98.252</v>
       </c>
     </row>
@@ -32532,21 +32531,20 @@
         <f t="shared" si="15"/>
         <v>39.35388</v>
       </c>
-      <c r="AR18" s="120">
-        <f t="shared" si="7"/>
-        <v>2.186326667</v>
-      </c>
+      <c r="AR18" s="120"/>
       <c r="AS18" s="120"/>
       <c r="AT18" s="120"/>
       <c r="AU18" s="120"/>
-      <c r="AV18" s="120"/>
-      <c r="AW18" s="120"/>
-      <c r="BB18" s="22">
+      <c r="AV18" s="120">
+        <f t="shared" si="9"/>
+        <v>2.186326667</v>
+      </c>
+      <c r="BA18" s="22">
         <f>((300-34)+(351-21))/2</f>
         <v>298</v>
       </c>
-      <c r="BC18" s="127">
-        <f>(BB18*568)/1000</f>
+      <c r="BB18" s="127">
+        <f>(BA18*568)/1000</f>
         <v>169.264</v>
       </c>
     </row>
@@ -32669,21 +32667,20 @@
         <f t="shared" si="15"/>
         <v>54.60588</v>
       </c>
-      <c r="AR19" s="120">
-        <f t="shared" si="7"/>
-        <v>3.03366</v>
-      </c>
+      <c r="AR19" s="120"/>
       <c r="AS19" s="120"/>
       <c r="AT19" s="120"/>
       <c r="AU19" s="120"/>
-      <c r="AV19" s="120"/>
-      <c r="AW19" s="120"/>
-      <c r="BB19" s="74">
+      <c r="AV19" s="120">
+        <f t="shared" si="9"/>
+        <v>3.03366</v>
+      </c>
+      <c r="BA19" s="74">
         <f>((317-15)+(219-17))/2</f>
         <v>252</v>
       </c>
-      <c r="BC19" s="127">
-        <f>(BB19*932)/1000</f>
+      <c r="BB19" s="127">
+        <f>(BA19*932)/1000</f>
         <v>234.864</v>
       </c>
     </row>
@@ -34631,26 +34628,25 @@
       <c r="AP41" s="83">
         <v>11.0</v>
       </c>
-      <c r="AQ41" s="188">
+      <c r="AQ41" s="191">
         <v>11.47</v>
       </c>
       <c r="AR41" s="120">
+        <v>81.44458314499892</v>
+      </c>
+      <c r="AS41" s="192">
+        <v>2.015828013</v>
+      </c>
+      <c r="AT41" s="120">
+        <v>4.250012172007344</v>
+      </c>
+      <c r="AU41" s="120">
+        <v>0.9739777194149364</v>
+      </c>
+      <c r="AV41" s="120">
         <f>AQ41/AP41</f>
         <v>1.042727273</v>
       </c>
-      <c r="AS41" s="120">
-        <v>81.44458314499892</v>
-      </c>
-      <c r="AT41" s="189">
-        <v>0.0020158337868902273</v>
-      </c>
-      <c r="AU41" s="120">
-        <v>4.250012172007344</v>
-      </c>
-      <c r="AV41" s="120">
-        <v>0.9739777194149364</v>
-      </c>
-      <c r="AW41" s="120"/>
     </row>
     <row r="42" hidden="1">
       <c r="A42" s="58" t="s">
@@ -34913,15 +34909,14 @@
         <f>17 + (17*0.25)</f>
         <v>21.25</v>
       </c>
-      <c r="AR44" s="120">
-        <f t="shared" ref="AR44:AR47" si="20">AQ44/AP44</f>
-        <v>2.125</v>
-      </c>
+      <c r="AR44" s="120"/>
       <c r="AS44" s="120"/>
       <c r="AT44" s="120"/>
       <c r="AU44" s="120"/>
-      <c r="AV44" s="120"/>
-      <c r="AW44" s="120"/>
+      <c r="AV44" s="120">
+        <f t="shared" ref="AV44:AV47" si="20">AQ44/AP44</f>
+        <v>2.125</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="50" t="s">
@@ -35029,15 +35024,14 @@
       <c r="AQ45" s="83">
         <v>12.4</v>
       </c>
-      <c r="AR45" s="120">
-        <f t="shared" si="20"/>
-        <v>1.24</v>
-      </c>
+      <c r="AR45" s="120"/>
       <c r="AS45" s="120"/>
       <c r="AT45" s="120"/>
       <c r="AU45" s="120"/>
-      <c r="AV45" s="120"/>
-      <c r="AW45" s="120"/>
+      <c r="AV45" s="120">
+        <f t="shared" si="20"/>
+        <v>1.24</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="54" t="s">
@@ -35149,19 +35143,18 @@
       <c r="AP46" s="83">
         <v>11.0</v>
       </c>
-      <c r="AQ46" s="188">
+      <c r="AQ46" s="191">
         <f>((4.8 + (0.25*4.8))*73)/1000</f>
         <v>0.438</v>
       </c>
-      <c r="AR46" s="120">
+      <c r="AR46" s="193"/>
+      <c r="AS46" s="194"/>
+      <c r="AT46" s="194"/>
+      <c r="AU46" s="194"/>
+      <c r="AV46" s="120">
         <f t="shared" si="20"/>
         <v>0.03981818182</v>
       </c>
-      <c r="AS46" s="190"/>
-      <c r="AT46" s="191"/>
-      <c r="AU46" s="191"/>
-      <c r="AV46" s="191"/>
-      <c r="AW46" s="120"/>
     </row>
     <row r="47">
       <c r="A47" s="50" t="s">
@@ -35269,15 +35262,14 @@
       <c r="AQ47" s="83">
         <v>17.1</v>
       </c>
-      <c r="AR47" s="120">
-        <f t="shared" si="20"/>
-        <v>1.921348315</v>
-      </c>
+      <c r="AR47" s="120"/>
       <c r="AS47" s="120"/>
       <c r="AT47" s="120"/>
       <c r="AU47" s="120"/>
-      <c r="AV47" s="120"/>
-      <c r="AW47" s="120"/>
+      <c r="AV47" s="120">
+        <f t="shared" si="20"/>
+        <v>1.921348315</v>
+      </c>
     </row>
     <row r="48" hidden="1">
       <c r="A48" s="58" t="s">
@@ -35475,15 +35467,22 @@
       <c r="AQ49" s="83">
         <v>10.2125</v>
       </c>
-      <c r="AR49" s="120">
-        <f t="shared" ref="AR49:AR50" si="24">AQ49/AP49</f>
+      <c r="AR49" s="195">
+        <v>6.605251726</v>
+      </c>
+      <c r="AS49" s="195">
+        <v>1.972416985</v>
+      </c>
+      <c r="AT49" s="195">
+        <v>11.27551814</v>
+      </c>
+      <c r="AU49" s="195">
+        <v>1.281575049</v>
+      </c>
+      <c r="AV49" s="120">
+        <f t="shared" ref="AV49:AV50" si="24">AQ49/AP49</f>
         <v>0.3782407407</v>
       </c>
-      <c r="AS49" s="192"/>
-      <c r="AT49" s="192"/>
-      <c r="AU49" s="192"/>
-      <c r="AV49" s="192"/>
-      <c r="AW49" s="192"/>
     </row>
     <row r="50">
       <c r="A50" s="54" t="s">
@@ -35600,15 +35599,22 @@
       <c r="AQ50" s="83">
         <v>17.1625</v>
       </c>
-      <c r="AR50" s="120">
+      <c r="AR50" s="195">
+        <v>7.74986488</v>
+      </c>
+      <c r="AS50" s="195">
+        <v>1.265644254</v>
+      </c>
+      <c r="AT50" s="195">
+        <v>11.70589656</v>
+      </c>
+      <c r="AU50" s="195">
+        <v>1.257666391</v>
+      </c>
+      <c r="AV50" s="120">
         <f t="shared" si="24"/>
         <v>0.6356481481</v>
       </c>
-      <c r="AS50" s="192"/>
-      <c r="AT50" s="192"/>
-      <c r="AU50" s="192"/>
-      <c r="AV50" s="192"/>
-      <c r="AW50" s="192"/>
     </row>
     <row r="51" hidden="1">
       <c r="A51" s="50" t="s">
@@ -35796,22 +35802,21 @@
         <v>66.0125</v>
       </c>
       <c r="AR52" s="120">
-        <f t="shared" ref="AR52:AR53" si="25">AQ52/AP52</f>
+        <v>82.61744749497547</v>
+      </c>
+      <c r="AS52" s="120">
+        <v>41.747124497432</v>
+      </c>
+      <c r="AT52" s="120">
+        <v>39.8500344304</v>
+      </c>
+      <c r="AU52" s="120">
+        <v>9.455839096420892</v>
+      </c>
+      <c r="AV52" s="120">
+        <f t="shared" ref="AV52:AV53" si="25">AQ52/AP52</f>
         <v>2.000378788</v>
       </c>
-      <c r="AS52" s="120">
-        <v>82.61744749497547</v>
-      </c>
-      <c r="AT52" s="120">
-        <v>41.747124497432</v>
-      </c>
-      <c r="AU52" s="120">
-        <v>39.8500344304</v>
-      </c>
-      <c r="AV52" s="120">
-        <v>9.455839096420892</v>
-      </c>
-      <c r="AW52" s="120"/>
     </row>
     <row r="53">
       <c r="A53" s="50" t="s">
@@ -35922,22 +35927,21 @@
         <v>36.3</v>
       </c>
       <c r="AR53" s="120">
+        <v>32.59733174978482</v>
+      </c>
+      <c r="AS53" s="120">
+        <v>19.03757595718504</v>
+      </c>
+      <c r="AT53" s="120">
+        <v>17.250014904</v>
+      </c>
+      <c r="AU53" s="120">
+        <v>4.020808070045041</v>
+      </c>
+      <c r="AV53" s="120">
         <f t="shared" si="25"/>
         <v>1.1</v>
       </c>
-      <c r="AS53" s="120">
-        <v>32.59733174978482</v>
-      </c>
-      <c r="AT53" s="120">
-        <v>19.03757595718504</v>
-      </c>
-      <c r="AU53" s="120">
-        <v>17.250014904</v>
-      </c>
-      <c r="AV53" s="120">
-        <v>4.020808070045041</v>
-      </c>
-      <c r="AW53" s="120"/>
     </row>
     <row r="54" hidden="1">
       <c r="A54" s="54" t="s">
@@ -36306,22 +36310,21 @@
         <v>73.75</v>
       </c>
       <c r="AR57" s="120">
+        <v>142.07180501660264</v>
+      </c>
+      <c r="AS57" s="120">
+        <v>38.06641913659625</v>
+      </c>
+      <c r="AT57" s="120">
+        <v>251.0126164697132</v>
+      </c>
+      <c r="AU57" s="120">
+        <v>52.06747926299296</v>
+      </c>
+      <c r="AV57" s="120">
         <f>AQ57/AP57</f>
         <v>3.352272727</v>
       </c>
-      <c r="AS57" s="120">
-        <v>142.07180501660264</v>
-      </c>
-      <c r="AT57" s="120">
-        <v>38.06641913659625</v>
-      </c>
-      <c r="AU57" s="120">
-        <v>251.0126164697132</v>
-      </c>
-      <c r="AV57" s="120">
-        <v>52.06747926299296</v>
-      </c>
-      <c r="AW57" s="120"/>
     </row>
     <row r="58">
       <c r="A58" s="54" t="s">
@@ -36664,7 +36667,7 @@
     </row>
     <row r="61">
       <c r="A61" s="86"/>
-      <c r="B61" s="193"/>
+      <c r="B61" s="196"/>
       <c r="C61" s="88"/>
       <c r="D61" s="88"/>
       <c r="E61" s="88"/>
@@ -36681,7 +36684,7 @@
       <c r="P61" s="91"/>
       <c r="Q61" s="88"/>
       <c r="R61" s="91"/>
-      <c r="S61" s="194"/>
+      <c r="S61" s="197"/>
       <c r="T61" s="88"/>
       <c r="U61" s="88"/>
       <c r="V61" s="91"/>
@@ -36721,23 +36724,22 @@
         <f>(23.554*0.5)*12.5</f>
         <v>147.2125</v>
       </c>
-      <c r="AR61" s="120">
+      <c r="AR61" s="22">
+        <v>189.00916857076098</v>
+      </c>
+      <c r="AS61" s="22">
+        <v>121.86314270139945</v>
+      </c>
+      <c r="AT61" s="120">
+        <v>76.10524648987617</v>
+      </c>
+      <c r="AU61" s="120">
+        <v>21.924028337210054</v>
+      </c>
+      <c r="AV61" s="120">
         <f>AQ61/AP61</f>
         <v>3.066927083</v>
       </c>
-      <c r="AS61" s="22">
-        <v>189.00916857076098</v>
-      </c>
-      <c r="AT61" s="22">
-        <v>121.86314270139945</v>
-      </c>
-      <c r="AU61" s="120">
-        <v>76.10524648987617</v>
-      </c>
-      <c r="AV61" s="120">
-        <v>21.924028337210054</v>
-      </c>
-      <c r="AW61" s="120"/>
     </row>
     <row r="62">
       <c r="B62" s="83" t="s">
@@ -40522,7 +40524,7 @@
       <c r="AF994" s="98"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AR1:AR48 AR51:AR994">
+  <conditionalFormatting sqref="AV1:AV48 AV51:AV994">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -40599,7 +40601,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="195" t="s">
+      <c r="B1" s="198" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="110" t="s">
@@ -40647,7 +40649,7 @@
       <c r="A2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="196"/>
+      <c r="B2" s="199"/>
       <c r="C2" s="39" t="s">
         <v>361</v>
       </c>
@@ -40663,8 +40665,8 @@
       <c r="G2" s="120">
         <v>9.829024179360166</v>
       </c>
-      <c r="H2" s="120">
-        <v>0.2696872232538582</v>
+      <c r="H2" s="200">
+        <v>0.2</v>
       </c>
       <c r="I2" s="120">
         <v>4.905409638770266</v>
@@ -40685,7 +40687,7 @@
       <c r="A3" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="197" t="s">
+      <c r="B3" s="201" t="s">
         <v>61</v>
       </c>
       <c r="C3" s="39" t="s">
@@ -40695,12 +40697,11 @@
         <v>17.0</v>
       </c>
       <c r="E3" s="122">
-        <f>3.4+(3.4*0.25)</f>
-        <v>4.25</v>
+        <v>15.875</v>
       </c>
       <c r="F3" s="120">
         <f t="shared" ref="F3:F20" si="1">E3/D3</f>
-        <v>0.25</v>
+        <v>0.9338235294</v>
       </c>
       <c r="G3" s="120">
         <v>15.449558599498799</v>
@@ -40711,8 +40712,8 @@
       <c r="I3" s="120">
         <v>12.901794797141074</v>
       </c>
-      <c r="J3" s="120">
-        <v>0.41669945118522</v>
+      <c r="J3" s="200">
+        <v>10.63</v>
       </c>
       <c r="K3" s="116"/>
       <c r="L3" s="116">
@@ -40728,20 +40729,19 @@
       <c r="A4" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="198" t="s">
+      <c r="B4" s="202" t="s">
         <v>61</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="39">
         <v>17.0</v>
       </c>
-      <c r="E4" s="122">
-        <f>12.7+(12.7*0.25)</f>
-        <v>15.875</v>
+      <c r="E4" s="116">
+        <v>4.25</v>
       </c>
       <c r="F4" s="120">
         <f t="shared" si="1"/>
-        <v>0.9338235294</v>
+        <v>0.25</v>
       </c>
       <c r="G4" s="120">
         <v>5.13219580430068</v>
@@ -40766,7 +40766,7 @@
       <c r="A5" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="197" t="s">
+      <c r="B5" s="201" t="s">
         <v>41</v>
       </c>
       <c r="C5" s="39" t="s">
@@ -40804,7 +40804,7 @@
       <c r="A6" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="198" t="s">
+      <c r="B6" s="202" t="s">
         <v>41</v>
       </c>
       <c r="C6" s="22"/>
@@ -40838,7 +40838,7 @@
       <c r="A7" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="197" t="s">
+      <c r="B7" s="201" t="s">
         <v>41</v>
       </c>
       <c r="C7" s="22"/>
@@ -40872,7 +40872,7 @@
       <c r="A8" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="198" t="s">
+      <c r="B8" s="202" t="s">
         <v>41</v>
       </c>
       <c r="C8" s="22"/>
@@ -40904,7 +40904,7 @@
       <c r="A9" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="197" t="s">
+      <c r="B9" s="201" t="s">
         <v>41</v>
       </c>
       <c r="C9" s="22"/>
@@ -40936,7 +40936,7 @@
       <c r="A10" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="198" t="s">
+      <c r="B10" s="202" t="s">
         <v>95</v>
       </c>
       <c r="C10" s="126"/>
@@ -40970,7 +40970,7 @@
       <c r="A11" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="199" t="s">
+      <c r="B11" s="203" t="s">
         <v>61</v>
       </c>
       <c r="D11" s="83">
@@ -41013,7 +41013,7 @@
       <c r="A12" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="B12" s="200" t="s">
+      <c r="B12" s="204" t="s">
         <v>61</v>
       </c>
       <c r="D12" s="83">
@@ -41052,7 +41052,7 @@
       <c r="A13" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="B13" s="199" t="s">
+      <c r="B13" s="203" t="s">
         <v>61</v>
       </c>
       <c r="D13" s="83">
@@ -41091,7 +41091,7 @@
       <c r="A14" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="B14" s="200" t="s">
+      <c r="B14" s="204" t="s">
         <v>61</v>
       </c>
       <c r="C14" s="83" t="s">
@@ -41100,7 +41100,7 @@
       <c r="D14" s="83">
         <v>11.0</v>
       </c>
-      <c r="E14" s="188">
+      <c r="E14" s="191">
         <v>11.47</v>
       </c>
       <c r="F14" s="120">
@@ -41110,8 +41110,8 @@
       <c r="G14" s="120">
         <v>81.44458314499892</v>
       </c>
-      <c r="H14" s="189">
-        <v>0.0020158337868902273</v>
+      <c r="H14" s="205">
+        <v>2.015828013</v>
       </c>
       <c r="I14" s="120">
         <v>4.250012172007344</v>
@@ -41124,7 +41124,7 @@
       <c r="A15" s="50" t="s">
         <v>381</v>
       </c>
-      <c r="B15" s="199" t="s">
+      <c r="B15" s="203" t="s">
         <v>61</v>
       </c>
       <c r="D15" s="83">
@@ -41137,16 +41137,16 @@
         <f t="shared" si="1"/>
         <v>0.3782407407</v>
       </c>
-      <c r="G15" s="201">
+      <c r="G15" s="195">
         <v>6.605251726</v>
       </c>
-      <c r="H15" s="201">
+      <c r="H15" s="195">
         <v>1.972416985</v>
       </c>
-      <c r="I15" s="201">
+      <c r="I15" s="195">
         <v>11.27551814</v>
       </c>
-      <c r="J15" s="201">
+      <c r="J15" s="195">
         <v>1.281575049</v>
       </c>
     </row>
@@ -41154,7 +41154,7 @@
       <c r="A16" s="54" t="s">
         <v>382</v>
       </c>
-      <c r="B16" s="200" t="s">
+      <c r="B16" s="204" t="s">
         <v>61</v>
       </c>
       <c r="D16" s="83">
@@ -41167,16 +41167,16 @@
         <f t="shared" si="1"/>
         <v>0.6356481481</v>
       </c>
-      <c r="G16" s="201">
+      <c r="G16" s="195">
         <v>7.74986488</v>
       </c>
-      <c r="H16" s="201">
+      <c r="H16" s="195">
         <v>1.265644254</v>
       </c>
-      <c r="I16" s="201">
+      <c r="I16" s="195">
         <v>11.70589656</v>
       </c>
-      <c r="J16" s="201">
+      <c r="J16" s="195">
         <v>1.257666391</v>
       </c>
     </row>
@@ -41184,7 +41184,7 @@
       <c r="A17" s="50" t="s">
         <v>221</v>
       </c>
-      <c r="B17" s="199" t="s">
+      <c r="B17" s="203" t="s">
         <v>61</v>
       </c>
       <c r="C17" s="83" t="s">
@@ -41218,7 +41218,7 @@
       <c r="A18" s="54" t="s">
         <v>231</v>
       </c>
-      <c r="B18" s="200" t="s">
+      <c r="B18" s="204" t="s">
         <v>61</v>
       </c>
       <c r="C18" s="83" t="s">
@@ -41252,7 +41252,7 @@
       <c r="A19" s="50" t="s">
         <v>250</v>
       </c>
-      <c r="B19" s="199" t="s">
+      <c r="B19" s="203" t="s">
         <v>61</v>
       </c>
       <c r="C19" s="83" t="s">
@@ -41283,10 +41283,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="202" t="s">
+      <c r="A20" s="206" t="s">
         <v>262</v>
       </c>
-      <c r="B20" s="203" t="s">
+      <c r="B20" s="207" t="s">
         <v>126</v>
       </c>
       <c r="D20" s="83">
@@ -41300,10 +41300,10 @@
         <f t="shared" si="1"/>
         <v>3.066927083</v>
       </c>
-      <c r="G20" s="22">
+      <c r="G20" s="120">
         <v>189.00916857076098</v>
       </c>
-      <c r="H20" s="22">
+      <c r="H20" s="120">
         <v>121.86314270139945</v>
       </c>
       <c r="I20" s="120">
@@ -41358,13 +41358,13 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="204" t="s">
+      <c r="A1" s="208" t="s">
         <v>397</v>
       </c>
-      <c r="AB1" s="204"/>
-      <c r="AC1" s="204"/>
-      <c r="AD1" s="204"/>
-      <c r="AE1" s="204"/>
+      <c r="AB1" s="208"/>
+      <c r="AC1" s="208"/>
+      <c r="AD1" s="208"/>
+      <c r="AE1" s="208"/>
     </row>
     <row r="2">
       <c r="A2" s="148" t="s">
@@ -41445,13 +41445,13 @@
       <c r="A3" s="149">
         <v>20.0</v>
       </c>
-      <c r="B3" s="205">
+      <c r="B3" s="209">
         <v>3.0284131200947106</v>
       </c>
-      <c r="C3" s="205">
+      <c r="C3" s="209">
         <v>3.0284131200947106</v>
       </c>
-      <c r="D3" s="205">
+      <c r="D3" s="209">
         <v>3.0284131200947106</v>
       </c>
       <c r="E3" s="149">
@@ -41520,13 +41520,13 @@
       <c r="A4" s="149">
         <v>21.0</v>
       </c>
-      <c r="B4" s="205">
+      <c r="B4" s="209">
         <v>3.1534017536033554</v>
       </c>
-      <c r="C4" s="205">
+      <c r="C4" s="209">
         <v>3.1534017536033554</v>
       </c>
-      <c r="D4" s="205">
+      <c r="D4" s="209">
         <v>3.1534017536033554</v>
       </c>
       <c r="E4" s="149">
@@ -41574,72 +41574,72 @@
       <c r="AE4" s="148"/>
     </row>
     <row r="5">
-      <c r="A5" s="206">
+      <c r="A5" s="210">
         <v>22.0</v>
       </c>
-      <c r="B5" s="207">
+      <c r="B5" s="211">
         <v>3.276341393120055</v>
       </c>
-      <c r="C5" s="207">
+      <c r="C5" s="211">
         <v>3.276341393120055</v>
       </c>
-      <c r="D5" s="207">
+      <c r="D5" s="211">
         <v>3.276341393120055</v>
       </c>
-      <c r="E5" s="206">
+      <c r="E5" s="210">
         <v>9.829024179360166</v>
       </c>
-      <c r="F5" s="208"/>
-      <c r="G5" s="208"/>
-      <c r="H5" s="208"/>
-      <c r="I5" s="208">
+      <c r="F5" s="212"/>
+      <c r="G5" s="212"/>
+      <c r="H5" s="212"/>
+      <c r="I5" s="212">
         <f t="shared" si="1"/>
         <v>0.2696872233</v>
       </c>
-      <c r="J5" s="208"/>
-      <c r="K5" s="208"/>
-      <c r="L5" s="208"/>
-      <c r="M5" s="209" t="s">
+      <c r="J5" s="212"/>
+      <c r="K5" s="212"/>
+      <c r="L5" s="212"/>
+      <c r="M5" s="213" t="s">
         <v>418</v>
       </c>
-      <c r="N5" s="208"/>
-      <c r="O5" s="208"/>
-      <c r="P5" s="208"/>
-      <c r="Q5" s="208"/>
-      <c r="R5" s="206">
+      <c r="N5" s="212"/>
+      <c r="O5" s="212"/>
+      <c r="P5" s="212"/>
+      <c r="Q5" s="212"/>
+      <c r="R5" s="210">
         <v>0.108186882774696</v>
       </c>
-      <c r="S5" s="206">
+      <c r="S5" s="210">
         <v>0.13523360346837</v>
       </c>
-      <c r="T5" s="206">
+      <c r="T5" s="210">
         <v>0.0239732297057565</v>
       </c>
-      <c r="U5" s="206">
+      <c r="U5" s="210">
         <v>0.2673937159488225</v>
       </c>
-      <c r="V5" s="208"/>
-      <c r="W5" s="208"/>
-      <c r="X5" s="208"/>
-      <c r="Y5" s="208"/>
-      <c r="Z5" s="208"/>
-      <c r="AA5" s="208"/>
-      <c r="AB5" s="208"/>
-      <c r="AC5" s="208"/>
-      <c r="AD5" s="208"/>
-      <c r="AE5" s="208"/>
+      <c r="V5" s="212"/>
+      <c r="W5" s="212"/>
+      <c r="X5" s="212"/>
+      <c r="Y5" s="212"/>
+      <c r="Z5" s="212"/>
+      <c r="AA5" s="212"/>
+      <c r="AB5" s="212"/>
+      <c r="AC5" s="212"/>
+      <c r="AD5" s="212"/>
+      <c r="AE5" s="212"/>
     </row>
     <row r="6">
       <c r="A6" s="149">
         <v>23.0</v>
       </c>
-      <c r="B6" s="205">
+      <c r="B6" s="209">
         <v>3.3972320386448107</v>
       </c>
-      <c r="C6" s="205">
+      <c r="C6" s="209">
         <v>3.3972320386448107</v>
       </c>
-      <c r="D6" s="205">
+      <c r="D6" s="209">
         <v>3.3972320386448107</v>
       </c>
       <c r="E6" s="149">
@@ -41690,13 +41690,13 @@
       <c r="A7" s="149">
         <v>24.0</v>
       </c>
-      <c r="B7" s="205">
+      <c r="B7" s="209">
         <v>3.5181226841695645</v>
       </c>
-      <c r="C7" s="205">
+      <c r="C7" s="209">
         <v>3.5181226841695645</v>
       </c>
-      <c r="D7" s="205">
+      <c r="D7" s="209">
         <v>3.5181226841695645</v>
       </c>
       <c r="E7" s="149">
@@ -41747,13 +41747,13 @@
       <c r="A8" s="149">
         <v>25.0</v>
       </c>
-      <c r="B8" s="205">
+      <c r="B8" s="209">
         <v>3.6369643357023747</v>
       </c>
-      <c r="C8" s="205">
+      <c r="C8" s="209">
         <v>3.6369643357023747</v>
       </c>
-      <c r="D8" s="205">
+      <c r="D8" s="209">
         <v>3.6369643357023747</v>
       </c>
       <c r="E8" s="149">
@@ -41817,13 +41817,13 @@
       <c r="A9" s="149">
         <v>26.0</v>
       </c>
-      <c r="B9" s="205">
+      <c r="B9" s="209">
         <v>3.755805987235185</v>
       </c>
-      <c r="C9" s="205">
+      <c r="C9" s="209">
         <v>3.755805987235185</v>
       </c>
-      <c r="D9" s="205">
+      <c r="D9" s="209">
         <v>3.755805987235185</v>
       </c>
       <c r="E9" s="149">
@@ -41871,13 +41871,13 @@
       <c r="A10" s="149">
         <v>27.0</v>
       </c>
-      <c r="B10" s="205">
+      <c r="B10" s="209">
         <v>3.874647638767995</v>
       </c>
-      <c r="C10" s="205">
+      <c r="C10" s="209">
         <v>3.874647638767995</v>
       </c>
-      <c r="D10" s="205">
+      <c r="D10" s="209">
         <v>3.874647638767995</v>
       </c>
       <c r="E10" s="149">
@@ -41925,13 +41925,13 @@
       <c r="A11" s="149">
         <v>28.0</v>
       </c>
-      <c r="B11" s="205">
+      <c r="B11" s="209">
         <v>3.9914402963088604</v>
       </c>
-      <c r="C11" s="205">
+      <c r="C11" s="209">
         <v>3.9914402963088604</v>
       </c>
-      <c r="D11" s="205">
+      <c r="D11" s="209">
         <v>3.9914402963088604</v>
       </c>
       <c r="E11" s="149">
@@ -41979,13 +41979,13 @@
       <c r="A12" s="149">
         <v>29.0</v>
       </c>
-      <c r="B12" s="205">
+      <c r="B12" s="209">
         <v>4.108232953849725</v>
       </c>
-      <c r="C12" s="205">
+      <c r="C12" s="209">
         <v>4.108232953849725</v>
       </c>
-      <c r="D12" s="205">
+      <c r="D12" s="209">
         <v>4.108232953849725</v>
       </c>
       <c r="E12" s="149">
@@ -42033,13 +42033,13 @@
       <c r="A13" s="149">
         <v>30.0</v>
       </c>
-      <c r="B13" s="205">
+      <c r="B13" s="209">
         <v>4.222976617398645</v>
       </c>
-      <c r="C13" s="205">
+      <c r="C13" s="209">
         <v>4.222976617398645</v>
       </c>
-      <c r="D13" s="205">
+      <c r="D13" s="209">
         <v>4.222976617398645</v>
       </c>
       <c r="E13" s="149">
@@ -42105,13 +42105,13 @@
       <c r="AE13" s="148"/>
     </row>
     <row r="15">
-      <c r="A15" s="204" t="s">
+      <c r="A15" s="208" t="s">
         <v>419</v>
       </c>
-      <c r="AB15" s="204"/>
-      <c r="AC15" s="204"/>
-      <c r="AD15" s="204"/>
-      <c r="AE15" s="204"/>
+      <c r="AB15" s="208"/>
+      <c r="AC15" s="208"/>
+      <c r="AD15" s="208"/>
+      <c r="AE15" s="208"/>
     </row>
     <row r="16">
       <c r="A16" s="148" t="s">
@@ -42161,25 +42161,25 @@
       <c r="AE16" s="148"/>
     </row>
     <row r="17">
-      <c r="A17" s="206">
+      <c r="A17" s="210">
         <v>17.0</v>
       </c>
-      <c r="B17" s="210">
+      <c r="B17" s="214">
         <v>15.449558599498799</v>
       </c>
-      <c r="C17" s="206">
+      <c r="C17" s="210">
         <v>3.076953789136471</v>
       </c>
-      <c r="D17" s="210">
+      <c r="D17" s="214">
         <v>3.0877907556508797</v>
       </c>
-      <c r="E17" s="210">
+      <c r="E17" s="214">
         <v>12.901794797141074</v>
       </c>
-      <c r="F17" s="206">
+      <c r="F17" s="210">
         <v>4.955360631427887</v>
       </c>
-      <c r="G17" s="210">
+      <c r="G17" s="214">
         <v>0.41669945118522</v>
       </c>
       <c r="H17" s="148"/>
@@ -42208,7 +42208,7 @@
       <c r="AE17" s="148"/>
     </row>
     <row r="19">
-      <c r="A19" s="204" t="s">
+      <c r="A19" s="208" t="s">
         <v>423</v>
       </c>
     </row>
@@ -42255,25 +42255,25 @@
       <c r="Z20" s="148"/>
     </row>
     <row r="21">
-      <c r="A21" s="206">
+      <c r="A21" s="210">
         <v>17.0</v>
       </c>
-      <c r="B21" s="210">
+      <c r="B21" s="214">
         <v>5.13219580430068</v>
       </c>
-      <c r="C21" s="206">
+      <c r="C21" s="210">
         <v>0.2562529645298908</v>
       </c>
-      <c r="D21" s="210">
+      <c r="D21" s="214">
         <v>0.2597672055211105</v>
       </c>
-      <c r="E21" s="210">
+      <c r="E21" s="214">
         <v>3.0163071710871443</v>
       </c>
-      <c r="F21" s="206">
+      <c r="F21" s="210">
         <v>0.4619569541304635</v>
       </c>
-      <c r="G21" s="210">
+      <c r="G21" s="214">
         <v>0.46391543416513714</v>
       </c>
       <c r="H21" s="148"/>
@@ -42392,75 +42392,75 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="206">
+      <c r="A24" s="210">
         <v>33.0</v>
       </c>
-      <c r="B24" s="206">
+      <c r="B24" s="210">
         <v>2.8566254381004117</v>
       </c>
-      <c r="C24" s="206">
+      <c r="C24" s="210">
         <v>2.8566254381004117</v>
       </c>
-      <c r="D24" s="206">
+      <c r="D24" s="210">
         <v>2.8566254381004117</v>
       </c>
-      <c r="E24" s="206">
+      <c r="E24" s="210">
         <v>2.4890850951091488</v>
       </c>
-      <c r="F24" s="206">
+      <c r="F24" s="210">
         <v>4.499639941670267</v>
       </c>
-      <c r="G24" s="206">
+      <c r="G24" s="210">
         <v>15.558601351080652</v>
       </c>
-      <c r="H24" s="206">
+      <c r="H24" s="210">
         <v>1.4433116428854766</v>
       </c>
-      <c r="I24" s="206">
+      <c r="I24" s="210">
         <v>0.7700723757999016</v>
       </c>
-      <c r="J24" s="206">
+      <c r="J24" s="210">
         <v>1.5368784313067287</v>
       </c>
-      <c r="K24" s="206">
+      <c r="K24" s="210">
         <v>0.3518885370482132</v>
       </c>
-      <c r="L24" s="206">
+      <c r="L24" s="210">
         <v>0.6735213437456824</v>
       </c>
-      <c r="M24" s="206">
+      <c r="M24" s="210">
         <v>5.073330387933362</v>
       </c>
-      <c r="N24" s="206">
+      <c r="N24" s="210">
         <v>0.3981990300180097</v>
       </c>
-      <c r="O24" s="206">
+      <c r="O24" s="210">
         <v>0.6255463857445361</v>
       </c>
-      <c r="P24" s="206">
+      <c r="P24" s="210">
         <v>0.6763106212368937</v>
       </c>
-      <c r="Q24" s="206">
+      <c r="Q24" s="210">
         <v>0.20951619057150475</v>
       </c>
-      <c r="R24" s="206">
+      <c r="R24" s="210">
         <v>0.36954180030458195</v>
       </c>
-      <c r="S24" s="206">
+      <c r="S24" s="210">
         <v>2.2790230525431023</v>
       </c>
-      <c r="T24" s="208"/>
-      <c r="U24" s="208"/>
-      <c r="V24" s="208"/>
-      <c r="W24" s="208"/>
-      <c r="X24" s="208"/>
-      <c r="Y24" s="208"/>
-      <c r="Z24" s="208"/>
-      <c r="AA24" s="208"/>
-      <c r="AB24" s="208"/>
-      <c r="AC24" s="208"/>
-      <c r="AD24" s="208"/>
-      <c r="AE24" s="208"/>
+      <c r="T24" s="212"/>
+      <c r="U24" s="212"/>
+      <c r="V24" s="212"/>
+      <c r="W24" s="212"/>
+      <c r="X24" s="212"/>
+      <c r="Y24" s="212"/>
+      <c r="Z24" s="212"/>
+      <c r="AA24" s="212"/>
+      <c r="AB24" s="212"/>
+      <c r="AC24" s="212"/>
+      <c r="AD24" s="212"/>
+      <c r="AE24" s="212"/>
     </row>
     <row r="25">
       <c r="B25" s="83"/>
@@ -42486,18 +42486,18 @@
       <c r="A27" s="83" t="s">
         <v>455</v>
       </c>
-      <c r="B27" s="210">
+      <c r="B27" s="214">
         <v>2.8566254381004117</v>
       </c>
-      <c r="C27" s="210">
+      <c r="C27" s="214">
         <f>I24</f>
         <v>0.7700723758</v>
       </c>
-      <c r="D27" s="211">
+      <c r="D27" s="215">
         <f>T36</f>
         <v>2.667989178</v>
       </c>
-      <c r="E27" s="211">
+      <c r="E27" s="215">
         <f>O36</f>
         <v>0.6255463857</v>
       </c>
@@ -42506,18 +42506,18 @@
       <c r="A28" s="83" t="s">
         <v>456</v>
       </c>
-      <c r="B28" s="210">
+      <c r="B28" s="214">
         <v>2.8566254381004117</v>
       </c>
-      <c r="C28" s="211">
+      <c r="C28" s="215">
         <f>J24</f>
         <v>1.536878431</v>
       </c>
-      <c r="D28" s="211">
+      <c r="D28" s="215">
         <f>U36</f>
         <v>2.837159628</v>
       </c>
-      <c r="E28" s="211">
+      <c r="E28" s="215">
         <f>P36</f>
         <v>0.6763106212</v>
       </c>
@@ -42526,18 +42526,18 @@
       <c r="A29" s="83" t="s">
         <v>457</v>
       </c>
-      <c r="B29" s="210">
+      <c r="B29" s="214">
         <v>2.8566254381004117</v>
       </c>
-      <c r="C29" s="211">
+      <c r="C29" s="215">
         <f>H24</f>
         <v>1.443311643</v>
       </c>
-      <c r="D29" s="211">
+      <c r="D29" s="215">
         <f>X36</f>
         <v>1.538421983</v>
       </c>
-      <c r="E29" s="211">
+      <c r="E29" s="215">
         <f>N36</f>
         <v>0.39819903</v>
       </c>
@@ -42546,18 +42546,18 @@
       <c r="A30" s="83" t="s">
         <v>458</v>
       </c>
-      <c r="B30" s="210">
+      <c r="B30" s="214">
         <v>2.4890850951091488</v>
       </c>
-      <c r="C30" s="211">
+      <c r="C30" s="215">
         <f>K24</f>
         <v>0.351888537</v>
       </c>
-      <c r="D30" s="211">
+      <c r="D30" s="215">
         <f>V36</f>
         <v>1.60251083</v>
       </c>
-      <c r="E30" s="211">
+      <c r="E30" s="215">
         <f>Q36</f>
         <v>0.2095161906</v>
       </c>
@@ -42566,18 +42566,18 @@
       <c r="A31" s="83" t="s">
         <v>459</v>
       </c>
-      <c r="B31" s="210">
+      <c r="B31" s="214">
         <v>4.499639941670267</v>
       </c>
-      <c r="C31" s="211">
+      <c r="C31" s="215">
         <f>L24</f>
         <v>0.6735213437</v>
       </c>
-      <c r="D31" s="211">
+      <c r="D31" s="215">
         <f>W36</f>
         <v>0.7159074527</v>
       </c>
-      <c r="E31" s="211">
+      <c r="E31" s="215">
         <f>R36</f>
         <v>0.3695418003</v>
       </c>
@@ -42802,93 +42802,93 @@
       <c r="AE35" s="148"/>
     </row>
     <row r="36">
-      <c r="A36" s="206">
+      <c r="A36" s="210">
         <v>33.0</v>
       </c>
-      <c r="B36" s="206">
+      <c r="B36" s="210">
         <v>2.8566254381004117</v>
       </c>
-      <c r="C36" s="206">
+      <c r="C36" s="210">
         <v>2.8566254381004117</v>
       </c>
-      <c r="D36" s="206">
+      <c r="D36" s="210">
         <v>2.8566254381004117</v>
       </c>
-      <c r="E36" s="206">
+      <c r="E36" s="210">
         <v>2.4890850951091488</v>
       </c>
-      <c r="F36" s="206">
+      <c r="F36" s="210">
         <v>4.499639941670267</v>
       </c>
-      <c r="G36" s="206">
+      <c r="G36" s="210">
         <v>15.558601351080652</v>
       </c>
-      <c r="H36" s="206">
+      <c r="H36" s="210">
         <v>1.4433116428854766</v>
       </c>
-      <c r="I36" s="206">
+      <c r="I36" s="210">
         <v>0.7700723757999016</v>
       </c>
-      <c r="J36" s="206">
+      <c r="J36" s="210">
         <v>1.5368784313067287</v>
       </c>
-      <c r="K36" s="206">
+      <c r="K36" s="210">
         <v>0.3518885370482132</v>
       </c>
-      <c r="L36" s="206">
+      <c r="L36" s="210">
         <v>0.6735213437456824</v>
       </c>
-      <c r="M36" s="206">
+      <c r="M36" s="210">
         <v>5.073330387933362</v>
       </c>
-      <c r="N36" s="206">
+      <c r="N36" s="210">
         <v>0.3981990300180097</v>
       </c>
-      <c r="O36" s="206">
+      <c r="O36" s="210">
         <v>0.6255463857445361</v>
       </c>
-      <c r="P36" s="206">
+      <c r="P36" s="210">
         <v>0.6763106212368937</v>
       </c>
-      <c r="Q36" s="206">
+      <c r="Q36" s="210">
         <v>0.20951619057150475</v>
       </c>
-      <c r="R36" s="206">
+      <c r="R36" s="210">
         <v>0.36954180030458195</v>
       </c>
-      <c r="S36" s="206">
+      <c r="S36" s="210">
         <v>2.2790230525431023</v>
       </c>
-      <c r="T36" s="208">
+      <c r="T36" s="212">
         <f t="shared" ref="T36:Y36" si="4">T$33+(((T$38-T$33)/($A$38-$A$33))*($A36-$A$33))</f>
         <v>2.667989178</v>
       </c>
-      <c r="U36" s="208">
+      <c r="U36" s="212">
         <f t="shared" si="4"/>
         <v>2.837159628</v>
       </c>
-      <c r="V36" s="208">
+      <c r="V36" s="212">
         <f t="shared" si="4"/>
         <v>1.60251083</v>
       </c>
-      <c r="W36" s="208">
+      <c r="W36" s="212">
         <f t="shared" si="4"/>
         <v>0.7159074527</v>
       </c>
-      <c r="X36" s="208">
+      <c r="X36" s="212">
         <f t="shared" si="4"/>
         <v>1.538421983</v>
       </c>
-      <c r="Y36" s="208">
+      <c r="Y36" s="212">
         <f t="shared" si="4"/>
         <v>0.8863340903</v>
       </c>
-      <c r="Z36" s="208"/>
-      <c r="AA36" s="208"/>
-      <c r="AB36" s="208"/>
-      <c r="AC36" s="208"/>
-      <c r="AD36" s="208"/>
-      <c r="AE36" s="208"/>
+      <c r="Z36" s="212"/>
+      <c r="AA36" s="212"/>
+      <c r="AB36" s="212"/>
+      <c r="AC36" s="212"/>
+      <c r="AD36" s="212"/>
+      <c r="AE36" s="212"/>
     </row>
     <row r="37">
       <c r="A37" s="149">
@@ -43036,7 +43036,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="204" t="s">
+      <c r="A40" s="208" t="s">
         <v>94</v>
       </c>
     </row>
@@ -43083,25 +43083,25 @@
       <c r="Z41" s="148"/>
     </row>
     <row r="42">
-      <c r="A42" s="206">
+      <c r="A42" s="210">
         <v>7.0</v>
       </c>
-      <c r="B42" s="210">
+      <c r="B42" s="214">
         <v>119.0230286</v>
       </c>
-      <c r="C42" s="206">
+      <c r="C42" s="210">
         <v>42.613028084</v>
       </c>
-      <c r="D42" s="210">
+      <c r="D42" s="214">
         <v>33.4053166047834</v>
       </c>
-      <c r="E42" s="210">
+      <c r="E42" s="214">
         <v>18.7000161568</v>
       </c>
-      <c r="F42" s="206">
+      <c r="F42" s="210">
         <v>10.00000864</v>
       </c>
-      <c r="G42" s="210">
+      <c r="G42" s="214">
         <v>8.68098731477704</v>
       </c>
       <c r="H42" s="148"/>
@@ -43125,7 +43125,7 @@
       <c r="Z42" s="148"/>
     </row>
     <row r="44">
-      <c r="A44" s="204" t="s">
+      <c r="A44" s="208" t="s">
         <v>461</v>
       </c>
     </row>
@@ -43204,73 +43204,73 @@
       <c r="Z45" s="148"/>
     </row>
     <row r="46">
-      <c r="A46" s="206">
+      <c r="A46" s="210">
         <v>18.0</v>
       </c>
-      <c r="B46" s="206">
+      <c r="B46" s="210">
         <v>11.520387856981113</v>
       </c>
-      <c r="C46" s="206">
+      <c r="C46" s="210">
         <v>35.48279459950183</v>
       </c>
-      <c r="D46" s="206">
+      <c r="D46" s="210">
         <v>65.43580302765271</v>
       </c>
-      <c r="E46" s="206">
+      <c r="E46" s="210">
         <v>107.37001482706398</v>
       </c>
-      <c r="F46" s="206">
+      <c r="F46" s="210">
         <v>80.5</v>
       </c>
-      <c r="G46" s="206">
+      <c r="G46" s="210">
         <v>24.793999999999997</v>
       </c>
-      <c r="H46" s="206">
+      <c r="H46" s="210">
         <v>45.72399999999999</v>
       </c>
-      <c r="I46" s="206">
+      <c r="I46" s="210">
         <v>75.026</v>
       </c>
-      <c r="J46" s="206">
+      <c r="J46" s="210">
         <v>29.0</v>
       </c>
-      <c r="K46" s="206">
+      <c r="K46" s="210">
         <v>8.931999999999999</v>
       </c>
-      <c r="L46" s="206">
+      <c r="L46" s="210">
         <v>16.471999999999998</v>
       </c>
-      <c r="M46" s="206">
+      <c r="M46" s="210">
         <v>27.028</v>
       </c>
-      <c r="N46" s="206">
+      <c r="N46" s="210">
         <v>15.322052401746724</v>
       </c>
-      <c r="O46" s="206">
+      <c r="O46" s="210">
         <v>4.719192139737991</v>
       </c>
-      <c r="P46" s="206">
+      <c r="P46" s="210">
         <v>8.70292576419214</v>
       </c>
-      <c r="Q46" s="206">
+      <c r="Q46" s="210">
         <v>14.280152838427949</v>
       </c>
-      <c r="R46" s="206">
+      <c r="R46" s="210">
         <v>7.34282624721527</v>
       </c>
-      <c r="S46" s="206">
+      <c r="S46" s="210">
         <v>13.11770176887507</v>
       </c>
-      <c r="T46" s="206">
+      <c r="T46" s="210">
         <v>20.64381313323974</v>
       </c>
-      <c r="U46" s="206">
+      <c r="U46" s="210">
         <v>7.39137542247772</v>
       </c>
-      <c r="V46" s="206">
+      <c r="V46" s="210">
         <v>13.219994306564331</v>
       </c>
-      <c r="W46" s="206">
+      <c r="W46" s="210">
         <v>20.88346910476681</v>
       </c>
       <c r="X46" s="148"/>
@@ -43295,19 +43295,19 @@
       <c r="B48" s="83" t="s">
         <v>484</v>
       </c>
-      <c r="C48" s="211">
+      <c r="C48" s="215">
         <f>C46</f>
         <v>35.4827946</v>
       </c>
-      <c r="D48" s="211">
+      <c r="D48" s="215">
         <f>R46</f>
         <v>7.342826247</v>
       </c>
-      <c r="E48" s="211">
+      <c r="E48" s="215">
         <f>G46</f>
         <v>24.794</v>
       </c>
-      <c r="F48" s="211">
+      <c r="F48" s="215">
         <f>O46</f>
         <v>4.71919214</v>
       </c>
@@ -43316,19 +43316,19 @@
       <c r="B49" s="83" t="s">
         <v>485</v>
       </c>
-      <c r="C49" s="211">
+      <c r="C49" s="215">
         <f>D46</f>
         <v>65.43580303</v>
       </c>
-      <c r="D49" s="211">
+      <c r="D49" s="215">
         <f>S46</f>
         <v>13.11770177</v>
       </c>
-      <c r="E49" s="211">
+      <c r="E49" s="215">
         <f>H46</f>
         <v>45.724</v>
       </c>
-      <c r="F49" s="211">
+      <c r="F49" s="215">
         <f>P46</f>
         <v>8.702925764</v>
       </c>
@@ -43337,19 +43337,19 @@
       <c r="B50" s="83" t="s">
         <v>486</v>
       </c>
-      <c r="C50" s="211">
+      <c r="C50" s="215">
         <f>E46</f>
         <v>107.3700148</v>
       </c>
-      <c r="D50" s="211">
+      <c r="D50" s="215">
         <f>T46</f>
         <v>20.64381313</v>
       </c>
-      <c r="E50" s="211">
+      <c r="E50" s="215">
         <f>I46</f>
         <v>75.026</v>
       </c>
-      <c r="F50" s="211">
+      <c r="F50" s="215">
         <f>Q46</f>
         <v>14.28015284</v>
       </c>
@@ -43358,17 +43358,17 @@
       <c r="B51" s="83" t="s">
         <v>487</v>
       </c>
-      <c r="C51" s="211">
+      <c r="C51" s="215">
         <v>35.48279459950183</v>
       </c>
-      <c r="D51" s="211">
+      <c r="D51" s="215">
         <f>U46</f>
         <v>7.391375422</v>
       </c>
-      <c r="E51" s="211">
+      <c r="E51" s="215">
         <v>24.793999999999997</v>
       </c>
-      <c r="F51" s="211">
+      <c r="F51" s="215">
         <v>4.719192139737991</v>
       </c>
     </row>
@@ -43376,17 +43376,17 @@
       <c r="B52" s="83" t="s">
         <v>488</v>
       </c>
-      <c r="C52" s="211">
+      <c r="C52" s="215">
         <v>65.43580302765271</v>
       </c>
-      <c r="D52" s="211">
+      <c r="D52" s="215">
         <f>V46</f>
         <v>13.21999431</v>
       </c>
-      <c r="E52" s="211">
+      <c r="E52" s="215">
         <v>45.72399999999999</v>
       </c>
-      <c r="F52" s="211">
+      <c r="F52" s="215">
         <v>8.70292576419214</v>
       </c>
     </row>
@@ -43394,17 +43394,17 @@
       <c r="B53" s="83" t="s">
         <v>489</v>
       </c>
-      <c r="C53" s="211">
+      <c r="C53" s="215">
         <v>107.37001482706398</v>
       </c>
-      <c r="D53" s="211">
+      <c r="D53" s="215">
         <f>W46</f>
         <v>20.8834691</v>
       </c>
-      <c r="E53" s="211">
+      <c r="E53" s="215">
         <v>75.026</v>
       </c>
-      <c r="F53" s="211">
+      <c r="F53" s="215">
         <v>14.280152838427949</v>
       </c>
     </row>
@@ -43412,7 +43412,7 @@
       <c r="A54" s="99"/>
     </row>
     <row r="55">
-      <c r="A55" s="204" t="s">
+      <c r="A55" s="208" t="s">
         <v>152</v>
       </c>
     </row>
@@ -43457,22 +43457,22 @@
       <c r="Z56" s="148"/>
     </row>
     <row r="57">
-      <c r="A57" s="206">
+      <c r="A57" s="210">
         <v>11.0</v>
       </c>
-      <c r="B57" s="206">
+      <c r="B57" s="210">
         <v>81.44458314499892</v>
       </c>
-      <c r="C57" s="206">
+      <c r="C57" s="210">
         <v>4.250012172007344</v>
       </c>
-      <c r="D57" s="206">
+      <c r="D57" s="210">
         <v>1.583337868002736</v>
       </c>
-      <c r="E57" s="206">
+      <c r="E57" s="210">
         <v>0.9739777194149364</v>
       </c>
-      <c r="F57" s="206">
+      <c r="F57" s="210">
         <v>0.0020158337868902273</v>
       </c>
       <c r="G57" s="148"/>
@@ -43497,7 +43497,7 @@
       <c r="Z57" s="148"/>
     </row>
     <row r="59">
-      <c r="A59" s="204" t="s">
+      <c r="A59" s="208" t="s">
         <v>185</v>
       </c>
     </row>
@@ -43542,22 +43542,22 @@
       <c r="Z60" s="148"/>
     </row>
     <row r="61">
-      <c r="A61" s="206">
+      <c r="A61" s="210">
         <v>11.0</v>
       </c>
-      <c r="B61" s="206">
+      <c r="B61" s="210">
         <v>6.632553894226798</v>
       </c>
-      <c r="C61" s="206">
+      <c r="C61" s="210">
         <v>4.99999931999568</v>
       </c>
-      <c r="D61" s="206">
+      <c r="D61" s="210">
         <v>1.999999727998272</v>
       </c>
-      <c r="E61" s="206">
+      <c r="E61" s="210">
         <v>36.68824480372253</v>
       </c>
-      <c r="F61" s="206">
+      <c r="F61" s="210">
         <v>0.21569302723916992</v>
       </c>
       <c r="G61" s="148"/>
@@ -43582,7 +43582,7 @@
       <c r="Z61" s="148"/>
     </row>
     <row r="63">
-      <c r="A63" s="204" t="s">
+      <c r="A63" s="208" t="s">
         <v>221</v>
       </c>
     </row>
@@ -43637,37 +43637,37 @@
       <c r="Z64" s="148"/>
     </row>
     <row r="65">
-      <c r="A65" s="206">
+      <c r="A65" s="210">
         <v>33.0</v>
       </c>
-      <c r="B65" s="206">
+      <c r="B65" s="210">
         <v>82.61744749497547</v>
       </c>
-      <c r="C65" s="206">
+      <c r="C65" s="210">
         <v>41.0500354672</v>
       </c>
-      <c r="D65" s="206">
+      <c r="D65" s="210">
         <v>38.6500333936</v>
       </c>
-      <c r="E65" s="206">
+      <c r="E65" s="210">
         <v>14.400012441600001</v>
       </c>
-      <c r="F65" s="206">
+      <c r="F65" s="210">
         <v>13.4000115776</v>
       </c>
-      <c r="G65" s="206">
+      <c r="G65" s="210">
         <v>9.82455779790842</v>
       </c>
-      <c r="H65" s="206">
+      <c r="H65" s="210">
         <v>9.087120394933361</v>
       </c>
-      <c r="I65" s="206">
+      <c r="I65" s="210">
         <v>28.4512259737594</v>
       </c>
-      <c r="J65" s="206">
+      <c r="J65" s="210">
         <v>14.819438052345859</v>
       </c>
-      <c r="K65" s="206">
+      <c r="K65" s="210">
         <v>41.747124497432</v>
       </c>
       <c r="L65" s="148"/>
@@ -43700,7 +43700,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="204" t="s">
+      <c r="A67" s="208" t="s">
         <v>231</v>
       </c>
     </row>
@@ -43745,22 +43745,22 @@
       <c r="Z68" s="148"/>
     </row>
     <row r="69">
-      <c r="A69" s="206">
+      <c r="A69" s="210">
         <v>33.0</v>
       </c>
-      <c r="B69" s="206">
+      <c r="B69" s="210">
         <v>32.59733174978482</v>
       </c>
-      <c r="C69" s="206">
+      <c r="C69" s="210">
         <v>17.250014904</v>
       </c>
-      <c r="D69" s="206">
+      <c r="D69" s="210">
         <v>6.050005227200001</v>
       </c>
-      <c r="E69" s="206">
+      <c r="E69" s="210">
         <v>4.020808070045041</v>
       </c>
-      <c r="F69" s="206">
+      <c r="F69" s="210">
         <v>19.03757595718504</v>
       </c>
       <c r="G69" s="148"/>
@@ -43785,7 +43785,7 @@
       <c r="Z69" s="148"/>
     </row>
     <row r="71">
-      <c r="A71" s="204" t="s">
+      <c r="A71" s="208" t="s">
         <v>250</v>
       </c>
     </row>
@@ -43830,22 +43830,22 @@
       <c r="Z72" s="148"/>
     </row>
     <row r="73">
-      <c r="A73" s="206">
+      <c r="A73" s="210">
         <v>22.0</v>
       </c>
-      <c r="B73" s="206">
+      <c r="B73" s="210">
         <v>142.07180501660264</v>
       </c>
-      <c r="C73" s="206">
+      <c r="C73" s="210">
         <v>38.06641913659625</v>
       </c>
-      <c r="D73" s="206">
+      <c r="D73" s="210">
         <v>251.0126164697132</v>
       </c>
-      <c r="E73" s="206">
+      <c r="E73" s="210">
         <v>81.81253796097172</v>
       </c>
-      <c r="F73" s="206">
+      <c r="F73" s="210">
         <v>52.06747926299296</v>
       </c>
       <c r="G73" s="148"/>
@@ -43870,7 +43870,7 @@
       <c r="Z73" s="148"/>
     </row>
     <row r="75">
-      <c r="A75" s="204" t="s">
+      <c r="A75" s="208" t="s">
         <v>504</v>
       </c>
     </row>
@@ -43937,55 +43937,55 @@
       <c r="Z76" s="148"/>
     </row>
     <row r="77">
-      <c r="A77" s="206">
+      <c r="A77" s="210">
         <v>48.0</v>
       </c>
-      <c r="B77" s="206">
+      <c r="B77" s="210">
         <v>115.67313401053003</v>
       </c>
-      <c r="C77" s="206">
+      <c r="C77" s="210">
         <v>50.330828762111445</v>
       </c>
-      <c r="D77" s="206">
+      <c r="D77" s="210">
         <v>23.0052057981195</v>
       </c>
-      <c r="E77" s="206">
+      <c r="E77" s="210">
         <v>52.7439464907304</v>
       </c>
-      <c r="F77" s="206">
+      <c r="F77" s="210">
         <v>12.614339803780174</v>
       </c>
-      <c r="G77" s="206">
+      <c r="G77" s="210">
         <v>10.746960195365586</v>
       </c>
-      <c r="H77" s="206">
+      <c r="H77" s="210">
         <v>22.0655672096336</v>
       </c>
-      <c r="I77" s="206">
+      <c r="I77" s="210">
         <v>4.801833278780369</v>
       </c>
-      <c r="J77" s="206">
+      <c r="J77" s="210">
         <v>4.420735399512085</v>
       </c>
-      <c r="K77" s="206">
+      <c r="K77" s="210">
         <v>15.698465179175487</v>
       </c>
-      <c r="L77" s="206">
+      <c r="L77" s="210">
         <v>3.216599678743314</v>
       </c>
-      <c r="M77" s="206">
+      <c r="M77" s="210">
         <v>3.0089634792912547</v>
       </c>
-      <c r="N77" s="206">
+      <c r="N77" s="210">
         <v>91.27340476919873</v>
       </c>
-      <c r="O77" s="206">
+      <c r="O77" s="210">
         <v>27.181549205764654</v>
       </c>
-      <c r="P77" s="206">
+      <c r="P77" s="210">
         <v>4.245757074950089</v>
       </c>
-      <c r="Q77" s="210">
+      <c r="Q77" s="214">
         <v>121.86314270139945</v>
       </c>
       <c r="R77" s="148"/>
